--- a/data/keywords.xlsx
+++ b/data/keywords.xlsx
@@ -5,18 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RESEARCH &amp; WRITING\artikel jurnal_ketenagakerjaan-dan-google-trends\job-turnover-gtrends\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RESEARCH &amp; WRITING\ketenagakerjaan-dan-google-trends\job-turnover-gtrends\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{34E2D4AA-8334-4EC1-883F-AEBA1EA7D4F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ACFDA05-7E01-48CC-9BEB-A1B75DE85D16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{68C42115-DF87-4BD3-893A-7E833CAFC1A0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="1" xr2:uid="{68C42115-DF87-4BD3-893A-7E833CAFC1A0}"/>
   </bookViews>
   <sheets>
     <sheet name="used" sheetId="2" r:id="rId1"/>
+    <sheet name="usedq" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">used!$A$1:$E$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">usedq!$A$1:$E$18</definedName>
   </definedNames>
   <calcPr calcId="191029" iterate="1" iterateCount="1000" calcOnSave="0"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="34">
   <si>
     <t>description</t>
   </si>
@@ -72,9 +74,6 @@
     <t>Jualan online</t>
   </si>
   <si>
-    <t>jobstreet lowongan+olx lowongan</t>
-  </si>
-  <si>
     <t>lowongan kurir</t>
   </si>
   <si>
@@ -124,6 +123,24 @@
   </si>
   <si>
     <t>Berjualan</t>
+  </si>
+  <si>
+    <t>"phk buruh"+"phk karyawan"+"phk corona"</t>
+  </si>
+  <si>
+    <t>"daftar gojek"+"daftar grab"</t>
+  </si>
+  <si>
+    <t>"modal jualan"+"cara jualan online"</t>
+  </si>
+  <si>
+    <t>jobstreet+jobstreet lowongan+jobstreet loker</t>
+  </si>
+  <si>
+    <t>"lowongan kurir"+"loker kurir"</t>
+  </si>
+  <si>
+    <t>"jobstreet"</t>
   </si>
 </sst>
 </file>
@@ -514,8 +531,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -532,10 +549,10 @@
         <v>2</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -567,7 +584,7 @@
       <c r="C3" s="4"/>
       <c r="D3" s="2"/>
       <c r="E3" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
@@ -580,7 +597,7 @@
       <c r="C4" s="4"/>
       <c r="D4" s="2"/>
       <c r="E4" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -595,7 +612,7 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
@@ -608,7 +625,7 @@
       <c r="C6" s="4"/>
       <c r="D6" s="2"/>
       <c r="E6" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
@@ -616,7 +633,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="2"/>
@@ -629,7 +646,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="2"/>
@@ -642,14 +659,14 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" s="4">
         <v>1</v>
       </c>
       <c r="D9" s="2"/>
-      <c r="E9" s="4" t="s">
-        <v>11</v>
+      <c r="E9" s="5" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
@@ -657,12 +674,12 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="2"/>
       <c r="E10" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
@@ -670,12 +687,12 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="2"/>
       <c r="E11" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -683,7 +700,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" s="4">
         <v>1</v>
@@ -695,43 +712,43 @@
     </row>
     <row r="13" spans="1:5" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="2"/>
       <c r="E13" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="3"/>
       <c r="E14" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" s="4">
         <v>1</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
@@ -739,12 +756,12 @@
         <v>10</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="3"/>
       <c r="E16" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
@@ -752,27 +769,305 @@
         <v>10</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="3"/>
       <c r="E17" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" s="4">
         <v>1</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:E18" xr:uid="{267C817F-3A4F-4E4B-A30D-FFA813258253}">
+    <filterColumn colId="2">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AD47055-6BE4-486E-9200-C7558272E1CB}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:E18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="27.26953125" customWidth="1"/>
+    <col min="2" max="2" width="34.26953125" customWidth="1"/>
+    <col min="3" max="3" width="8.81640625" customWidth="1"/>
+    <col min="4" max="4" width="75.81640625" customWidth="1"/>
+    <col min="5" max="5" width="25.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="4" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="4">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="4">
+        <v>1</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="4">
+        <v>1</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
